--- a/Tesztbeosztás táblázat.xlsx
+++ b/Tesztbeosztás táblázat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\március\Projketlab2019-03-22\Projlab2019lev\Tesztdokumentáció\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\március\Projketlab2019-03-22\Projlab2019lev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Zentai Szilvia</t>
   </si>
 </sst>
 </file>
@@ -99,12 +102,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -388,7 +392,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -400,140 +404,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43599</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Tesztbeosztás táblázat.xlsx
+++ b/Tesztbeosztás táblázat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\március\Projketlab2019-03-22\Projlab2019lev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\éva\Projlab2019lev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Teszt szám</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Zentai Szilvia</t>
+  </si>
+  <si>
+    <t>Migléczi Éva</t>
   </si>
 </sst>
 </file>
@@ -105,10 +108,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -392,37 +395,37 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
@@ -433,14 +436,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>43599</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -449,19 +452,23 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43602</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -473,7 +480,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -485,7 +492,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -497,7 +504,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -509,7 +516,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -521,7 +528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -533,7 +540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
